--- a/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,43</t>
+          <t>20,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>23,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,95</t>
+          <t>21,59</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,72</t>
+          <t>17,98; 22,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,59; 25,26</t>
+          <t>21,35; 24,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 23,34</t>
+          <t>20,21; 22,95</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,17</t>
+          <t>23,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,05</t>
+          <t>20,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 20,99</t>
+          <t>16,76; 20,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,47; 24,8</t>
+          <t>21,42; 24,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 22,46</t>
+          <t>19,46; 22,16</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,42</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,0</t>
+          <t>22,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,71</t>
+          <t>22,51</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 24,36</t>
+          <t>20,58; 24,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,16; 25,36</t>
+          <t>21,0; 25,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,41; 24,06</t>
+          <t>21,21; 23,83</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,79</t>
+          <t>21,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>20,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,59</t>
+          <t>21,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,75</t>
+          <t>18,43; 24,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 23,59</t>
+          <t>18,26; 22,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 23,3</t>
+          <t>19,39; 22,76</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>19,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,22</t>
+          <t>21,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,39</t>
+          <t>20,4</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 21,06</t>
+          <t>17,53; 21,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,5; 22,88</t>
+          <t>19,6; 22,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 21,71</t>
+          <t>19,2; 21,71</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,21</t>
+          <t>21,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,38</t>
+          <t>22,26</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,22; 23,32</t>
+          <t>19,04; 23,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,6; 25,38</t>
+          <t>21,57; 25,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,96; 23,73</t>
+          <t>20,92; 23,61</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>20,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>23,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>22,26</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,56; 22,09</t>
+          <t>18,3; 21,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,75; 24,8</t>
+          <t>21,74; 24,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,52</t>
+          <t>20,85; 23,84</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,25</t>
+          <t>20,31</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,73</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,49</t>
+          <t>20,59</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,97; 21,55</t>
+          <t>19,02; 21,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,85</t>
+          <t>19,66; 21,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,59; 21,36</t>
+          <t>19,67; 21,45</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,39</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>21,45</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,8; 21,15</t>
+          <t>19,6; 20,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,71; 23,06</t>
+          <t>21,73; 23,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,05; 22,04</t>
+          <t>20,97; 22,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 22,36</t>
+          <t>17,86; 22,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,35; 24,97</t>
+          <t>21,42; 24,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 22,95</t>
+          <t>20,24; 23,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,64</t>
+          <t>16,8; 20,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,42; 24,77</t>
+          <t>21,51; 24,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 22,16</t>
+          <t>19,53; 22,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 24,13</t>
+          <t>20,51; 23,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 25,13</t>
+          <t>21,01; 24,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,21; 23,83</t>
+          <t>21,3; 23,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,49</t>
+          <t>18,53; 24,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,93</t>
+          <t>18,23; 22,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,39; 22,76</t>
+          <t>19,22; 22,96</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 21,05</t>
+          <t>17,58; 21,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,6; 22,91</t>
+          <t>19,69; 23,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 21,71</t>
+          <t>19,21; 21,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 23,13</t>
+          <t>18,88; 22,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,57; 25,38</t>
+          <t>21,67; 25,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,92; 23,61</t>
+          <t>20,84; 23,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,3; 21,81</t>
+          <t>18,38; 21,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,74; 24,71</t>
+          <t>21,66; 24,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,85; 23,84</t>
+          <t>20,9; 23,86</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,02; 21,59</t>
+          <t>19,15; 21,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,66; 21,98</t>
+          <t>19,76; 22,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,67; 21,45</t>
+          <t>19,73; 21,49</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,6; 20,97</t>
+          <t>19,58; 21,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,73; 23,27</t>
+          <t>21,74; 23,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,97; 22,18</t>
+          <t>20,98; 22,02</t>
         </is>
       </c>
     </row>
